--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012921.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3827,12 +3827,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4781,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7147,12 +7147,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8097,12 +8097,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10005,12 +10005,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10503,12 +10503,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11263,12 +11263,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11529,12 +11529,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11723,12 +11723,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12179,12 +12179,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13091,12 +13091,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13399,12 +13399,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13513,12 +13513,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13589,12 +13589,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14197,12 +14197,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14805,12 +14805,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15033,12 +15033,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15185,12 +15185,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15337,12 +15337,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16287,12 +16287,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16515,12 +16515,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16591,12 +16591,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17085,12 +17085,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17899,12 +17899,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18395,12 +18395,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18775,12 +18775,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18813,12 +18813,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19307,12 +19307,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19801,12 +19801,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19991,12 +19991,12 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
